--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H2">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I2">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J2">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>129.7526676773264</v>
+        <v>131.967597012156</v>
       </c>
       <c r="R2">
-        <v>129.7526676773264</v>
+        <v>527.8703880486239</v>
       </c>
       <c r="S2">
-        <v>0.05382936389706344</v>
+        <v>0.02877490474875647</v>
       </c>
       <c r="T2">
-        <v>0.05382936389706344</v>
+        <v>0.02039051153686614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H3">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I3">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J3">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>31.46349881771709</v>
+        <v>33.599815131924</v>
       </c>
       <c r="R3">
-        <v>31.46349881771709</v>
+        <v>201.598890791544</v>
       </c>
       <c r="S3">
-        <v>0.01305298887222553</v>
+        <v>0.007326279343465511</v>
       </c>
       <c r="T3">
-        <v>0.01305298887222553</v>
+        <v>0.007787336818987741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H4">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I4">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J4">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>92.90370456593737</v>
+        <v>100.883709304542</v>
       </c>
       <c r="R4">
-        <v>92.90370456593737</v>
+        <v>605.302255827252</v>
       </c>
       <c r="S4">
-        <v>0.03854215416134373</v>
+        <v>0.02199721137357707</v>
       </c>
       <c r="T4">
-        <v>0.03854215416134373</v>
+        <v>0.02338154007153699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H5">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I5">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J5">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>85.8007778478199</v>
+        <v>87.36189475703401</v>
       </c>
       <c r="R5">
-        <v>85.8007778478199</v>
+        <v>524.1713685422039</v>
       </c>
       <c r="S5">
-        <v>0.03559542455733627</v>
+        <v>0.0190488442407039</v>
       </c>
       <c r="T5">
-        <v>0.03559542455733627</v>
+        <v>0.02024762627255046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H6">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I6">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J6">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>97.19872270959225</v>
+        <v>102.051508979556</v>
       </c>
       <c r="R6">
-        <v>97.19872270959225</v>
+        <v>612.3090538773361</v>
       </c>
       <c r="S6">
-        <v>0.04032399108799745</v>
+        <v>0.02225184451970506</v>
       </c>
       <c r="T6">
-        <v>0.04032399108799745</v>
+        <v>0.02365219779303731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H7">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I7">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J7">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>23.3329391113416</v>
+        <v>23.699646304623</v>
       </c>
       <c r="R7">
-        <v>23.3329391113416</v>
+        <v>94.79858521849201</v>
       </c>
       <c r="S7">
-        <v>0.00967993408301932</v>
+        <v>0.005167594776556611</v>
       </c>
       <c r="T7">
-        <v>0.00967993408301932</v>
+        <v>0.003661867930728091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H8">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I8">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J8">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>55.06473793494641</v>
+        <v>66.42399697703665</v>
       </c>
       <c r="R8">
-        <v>55.06473793494641</v>
+        <v>398.5439818622199</v>
       </c>
       <c r="S8">
-        <v>0.02284423025172703</v>
+        <v>0.01448343555024236</v>
       </c>
       <c r="T8">
-        <v>0.02284423025172703</v>
+        <v>0.01539490724257411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H9">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I9">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J9">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>13.35255257504689</v>
+        <v>16.91198498178555</v>
       </c>
       <c r="R9">
-        <v>13.35255257504689</v>
+        <v>152.20786483607</v>
       </c>
       <c r="S9">
-        <v>0.005539457680394727</v>
+        <v>0.00368757761739386</v>
       </c>
       <c r="T9">
-        <v>0.005539457680394727</v>
+        <v>0.005879466426246597</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H10">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I10">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J10">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>39.42668953698105</v>
+        <v>50.77836797513167</v>
       </c>
       <c r="R10">
-        <v>39.42668953698105</v>
+        <v>457.005311776185</v>
       </c>
       <c r="S10">
-        <v>0.01635660874133657</v>
+        <v>0.01107198081091928</v>
       </c>
       <c r="T10">
-        <v>0.01635660874133657</v>
+        <v>0.01765314420577621</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H11">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I11">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J11">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>36.4123330285128</v>
+        <v>43.97235658322167</v>
       </c>
       <c r="R11">
-        <v>36.4123330285128</v>
+        <v>395.7512092489949</v>
       </c>
       <c r="S11">
-        <v>0.0151060688001206</v>
+        <v>0.00958796250676601</v>
       </c>
       <c r="T11">
-        <v>0.0151060688001206</v>
+        <v>0.01528702837026168</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H12">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I12">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J12">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>41.24941929460224</v>
+        <v>51.36616319031445</v>
       </c>
       <c r="R12">
-        <v>41.24941929460224</v>
+        <v>462.29546871283</v>
       </c>
       <c r="S12">
-        <v>0.01711278882738302</v>
+        <v>0.01120014675249584</v>
       </c>
       <c r="T12">
-        <v>0.01711278882738302</v>
+        <v>0.01785749172837026</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H13">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I13">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J13">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>9.902086796498308</v>
+        <v>11.9288770132725</v>
       </c>
       <c r="R13">
-        <v>9.902086796498308</v>
+        <v>71.573262079635</v>
       </c>
       <c r="S13">
-        <v>0.004107992868667296</v>
+        <v>0.002601034705397633</v>
       </c>
       <c r="T13">
-        <v>0.004107992868667296</v>
+        <v>0.002764723044156646</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H14">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I14">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J14">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>66.07773616211809</v>
+        <v>72.24634489252601</v>
       </c>
       <c r="R14">
-        <v>66.07773616211809</v>
+        <v>433.478069355156</v>
       </c>
       <c r="S14">
-        <v>0.02741309731072571</v>
+        <v>0.0157529707276306</v>
       </c>
       <c r="T14">
-        <v>0.02741309731072571</v>
+        <v>0.01674433681881506</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H15">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I15">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J15">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>16.02307536970606</v>
+        <v>18.39439292148734</v>
       </c>
       <c r="R15">
-        <v>16.02307536970606</v>
+        <v>165.549536293386</v>
       </c>
       <c r="S15">
-        <v>0.006647354310825483</v>
+        <v>0.004010809594253982</v>
       </c>
       <c r="T15">
-        <v>0.006647354310825483</v>
+        <v>0.006394826847915905</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H16">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I16">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J16">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>47.31206370305795</v>
+        <v>55.22930947800701</v>
       </c>
       <c r="R16">
-        <v>47.31206370305795</v>
+        <v>497.063785302063</v>
       </c>
       <c r="S16">
-        <v>0.01962794553192828</v>
+        <v>0.01204248736470405</v>
       </c>
       <c r="T16">
-        <v>0.01962794553192828</v>
+        <v>0.0192005179268106</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H17">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I17">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J17">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>43.69483312074877</v>
+        <v>47.82672202858901</v>
       </c>
       <c r="R17">
-        <v>43.69483312074877</v>
+        <v>430.440498257301</v>
       </c>
       <c r="S17">
-        <v>0.01812729645241241</v>
+        <v>0.0104283884982094</v>
       </c>
       <c r="T17">
-        <v>0.01812729645241241</v>
+        <v>0.0166270019011588</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H18">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I18">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J18">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>49.49934108847336</v>
+        <v>55.86862746209268</v>
       </c>
       <c r="R18">
-        <v>49.49934108847336</v>
+        <v>502.8176471588341</v>
       </c>
       <c r="S18">
-        <v>0.02053536233060361</v>
+        <v>0.01218188760016138</v>
       </c>
       <c r="T18">
-        <v>0.02053536233060361</v>
+        <v>0.01942277738524648</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H19">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I19">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J19">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N19">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O19">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P19">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q19">
-        <v>11.88251326223342</v>
+        <v>12.9744941903955</v>
       </c>
       <c r="R19">
-        <v>11.88251326223342</v>
+        <v>77.84696514237302</v>
       </c>
       <c r="S19">
-        <v>0.004929595220308652</v>
+        <v>0.002829026540943495</v>
       </c>
       <c r="T19">
-        <v>0.004929595220308652</v>
+        <v>0.003007062863884985</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H20">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I20">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J20">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N20">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O20">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P20">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q20">
-        <v>428.3533560138191</v>
+        <v>991.4045996277708</v>
       </c>
       <c r="R20">
-        <v>428.3533560138191</v>
+        <v>3965.618398511083</v>
       </c>
       <c r="S20">
-        <v>0.1777072417095706</v>
+        <v>0.2161710417379228</v>
       </c>
       <c r="T20">
-        <v>0.1777072417095706</v>
+        <v>0.1531834130809408</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H21">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I21">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J21">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N21">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P21">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q21">
-        <v>103.870660632753</v>
+        <v>252.4181088586757</v>
       </c>
       <c r="R21">
-        <v>103.870660632753</v>
+        <v>1514.508653152054</v>
       </c>
       <c r="S21">
-        <v>0.0430919201085982</v>
+        <v>0.05503856403932689</v>
       </c>
       <c r="T21">
-        <v>0.0430919201085982</v>
+        <v>0.05850225143134179</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H22">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I22">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J22">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N22">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O22">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P22">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q22">
-        <v>306.7036258237156</v>
+        <v>757.8873579309095</v>
       </c>
       <c r="R22">
-        <v>306.7036258237156</v>
+        <v>4547.324147585457</v>
       </c>
       <c r="S22">
-        <v>0.1272394732112205</v>
+        <v>0.1652537215839415</v>
       </c>
       <c r="T22">
-        <v>0.1272394732112205</v>
+        <v>0.1756534702315415</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H23">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I23">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J23">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N23">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O23">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P23">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q23">
-        <v>283.2546859931127</v>
+        <v>656.3049282949565</v>
       </c>
       <c r="R23">
-        <v>283.2546859931127</v>
+        <v>3937.829569769739</v>
       </c>
       <c r="S23">
-        <v>0.1175114149158731</v>
+        <v>0.1431041575765545</v>
       </c>
       <c r="T23">
-        <v>0.1175114149158731</v>
+        <v>0.1521099896689153</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H24">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I24">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J24">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N24">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O24">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P24">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q24">
-        <v>320.8827981591165</v>
+        <v>766.6604355307543</v>
       </c>
       <c r="R24">
-        <v>320.8827981591165</v>
+        <v>4599.962613184526</v>
       </c>
       <c r="S24">
-        <v>0.1331218634623371</v>
+        <v>0.1671666492874423</v>
       </c>
       <c r="T24">
-        <v>0.1331218634623371</v>
+        <v>0.1776867823179582</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H25">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I25">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J25">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N25">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O25">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P25">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q25">
-        <v>77.02918909432026</v>
+        <v>178.0432385518868</v>
       </c>
       <c r="R25">
-        <v>77.02918909432026</v>
+        <v>712.172954207547</v>
       </c>
       <c r="S25">
-        <v>0.03195643160698147</v>
+        <v>0.03882147850292942</v>
       </c>
       <c r="T25">
-        <v>0.03195643160698147</v>
+        <v>0.02750972808437854</v>
       </c>
     </row>
   </sheetData>
